--- a/target/classes/utils/finca.xlsx
+++ b/target/classes/utils/finca.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652170F-AB1F-4DED-B8AB-6661ECCCD0C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336EB31-60D4-4056-9800-0803923FFD23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
@@ -28,52 +28,10 @@
     <t>username</t>
   </si>
   <si>
-    <t>admin1</t>
+    <t>test.user9</t>
   </si>
   <si>
-    <t>admin2</t>
-  </si>
-  <si>
-    <t>admin3</t>
-  </si>
-  <si>
-    <t>dfdf1</t>
-  </si>
-  <si>
-    <t>dfdf2</t>
-  </si>
-  <si>
-    <t>dfdf3</t>
-  </si>
-  <si>
-    <t>erere</t>
-  </si>
-  <si>
-    <t>eeeee</t>
-  </si>
-  <si>
-    <t>admin4</t>
-  </si>
-  <si>
-    <t>dfdf3we</t>
-  </si>
-  <si>
-    <t>admin5</t>
-  </si>
-  <si>
-    <t>sdsdsd</t>
-  </si>
-  <si>
-    <t>frtrt</t>
-  </si>
-  <si>
-    <t>dfd</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>ere</t>
+    <t>Finca123456*</t>
   </si>
 </sst>
 </file>
@@ -391,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,72 +361,20 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
